--- a/ontology/enhancement/UtilityType.xlsx
+++ b/ontology/enhancement/UtilityType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nextcloud\Beegroup\Projects\Desenvolupaments_TIC_BIGG-ENTRACK\5-User_Interfaces\Traducciones\20230607\enhancement_2\enhancement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloigabal/Developement/CIMNE/bigg_entrack/ontology/enhancement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D1C27-A23D-4BBC-AD29-9B6558E387A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC8B5F-A541-3249-8E20-EE72787345E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25590" yWindow="1140" windowWidth="23040" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>http://bigg-project.eu/ontology#RenewableElectricityUtilityAuto-Consumption</t>
   </si>
   <si>
-    <t>http://bigg-project.eu/ontology#SolarThermal</t>
-  </si>
-  <si>
     <t>http://bigg-project.eu/ontology#TotalUtility</t>
   </si>
   <si>
@@ -266,13 +263,16 @@
   </si>
   <si>
     <t>Red de calefacción</t>
+  </si>
+  <si>
+    <t>http://bigg-project.eu/ontology#SolarThermalUtility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,12 +284,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,10 +344,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -349,8 +359,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,19 +666,19 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.21875" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="65.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,296 +692,299 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" location="SolarThermalUtility" xr:uid="{14BB039C-677C-9E47-B7D1-186EE47DF37B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>